--- a/Belbin Analysis - Team Roles.xlsx
+++ b/Belbin Analysis - Team Roles.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Course HW\3rd Year\Project Management\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Course HW\3rd Year\Project Management\project_management_2020\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B3F7DF90-63FF-4244-9498-566BB8CC3621}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD817EB4-F048-4F9B-87AE-0EACDF749644}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{212C16BB-7382-4E95-83F1-B14EF59EE58B}"/>
   </bookViews>
@@ -474,7 +474,7 @@
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -506,7 +506,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -538,7 +538,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -587,10 +587,10 @@
         <v>2</v>
       </c>
       <c r="C13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" t="s">
         <v>4</v>
-      </c>
-      <c r="D13" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -598,13 +598,13 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" t="s">
         <v>8</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D14" t="s">
         <v>3</v>
-      </c>
-      <c r="D14" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
